--- a/Final Folder/Project Management/Monitoring & Controlling Phase/Testing & Evaluation/Admin (Oracle)/AdminTesting.xlsx
+++ b/Final Folder/Project Management/Monitoring & Controlling Phase/Testing & Evaluation/Admin (Oracle)/AdminTesting.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>Test Cases</t>
   </si>
@@ -135,31 +136,73 @@
     <t>Trader is activated and can login.</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>Activate Shop</t>
   </si>
   <si>
     <t>Deactivate Shop</t>
   </si>
   <si>
-    <t>Activate Product</t>
-  </si>
-  <si>
-    <t>Deactivate Product</t>
-  </si>
-  <si>
     <t>Shop is deactivated.</t>
   </si>
   <si>
     <t>Shop is activated.</t>
   </si>
   <si>
-    <t>Product is activated.</t>
-  </si>
-  <si>
-    <t>Product is deactivated.</t>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View Review and Rating Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View  Products Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View  Traders Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View  Daily Orders Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View Weekly Order Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View  Monthly Order Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View Daily Payment Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View Weekly Payment Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View Monthly Payment Report</t>
+  </si>
+  <si>
+    <t>Review and Rating report is displayed.</t>
+  </si>
+  <si>
+    <t>Products report is displayed.</t>
+  </si>
+  <si>
+    <t>Traders report is displayed.</t>
+  </si>
+  <si>
+    <t>Daily orders report is displayed.</t>
+  </si>
+  <si>
+    <t>Weekly orders Report id displayed.</t>
+  </si>
+  <si>
+    <t>Monthly Orders Report is displayed.</t>
+  </si>
+  <si>
+    <t>Daily Payment Report is displayed.</t>
+  </si>
+  <si>
+    <t>Weekly Payment Report is displayed.</t>
+  </si>
+  <si>
+    <t>Monthly Payment Report is displayed.</t>
   </si>
 </sst>
 </file>
@@ -525,10 +568,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,15 +650,18 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="3"/>
+    </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -611,10 +669,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -622,10 +680,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -633,27 +691,32 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="D11" s="3"/>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -661,55 +724,57 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="D14" s="3"/>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="17" spans="1:4">
-      <c r="D17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
@@ -717,96 +782,155 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C31" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" t="s">
+      <c r="D31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C34" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -820,4 +944,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Final Folder/Project Management/Monitoring & Controlling Phase/Testing & Evaluation/Admin (Oracle)/AdminTesting.xlsx
+++ b/Final Folder/Project Management/Monitoring & Controlling Phase/Testing & Evaluation/Admin (Oracle)/AdminTesting.xlsx
@@ -67,9 +67,6 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>Logged out and redirects to home page.</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>Monthly Payment Report is displayed.</t>
+  </si>
+  <si>
+    <t>Customer gets logged out.</t>
   </si>
 </sst>
 </file>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -655,13 +655,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>4</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
@@ -757,13 +757,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>4</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
@@ -866,10 +866,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
         <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
@@ -919,10 +919,10 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>4</v>
